--- a/Metrics/TrainingMetrics.xlsx
+++ b/Metrics/TrainingMetrics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4001628440617864</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3507139028912526</v>
+        <v>0.351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6547945116059439</v>
+        <v>0.655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8091937416996896</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6006953953976406</v>
+        <v>0.601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6325842584682186</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9056370851129966</v>
+        <v>0.906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.897858063455645</v>
+        <v>0.898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1030084884796853</v>
+        <v>0.103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3209493550074299</v>
+        <v>0.321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2374243537429822</v>
+        <v>0.237</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9720568471133106</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6754488363189949</v>
+        <v>0.675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6486937224671557</v>
+        <v>0.648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3542866903288909</v>
+        <v>0.354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5952198672162169</v>
+        <v>0.595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4524436792510685</v>
+        <v>0.452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9253844879783987</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7016551084741619</v>
+        <v>0.702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6986313426816703</v>
+        <v>0.699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3171506329239692</v>
+        <v>0.317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5631612850009926</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4328741335086895</v>
+        <v>0.433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8876947041739882</v>
+        <v>0.888</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/TrainingMetrics.xlsx
+++ b/Metrics/TrainingMetrics.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.906</v>
+        <v>0.901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.898</v>
+        <v>0.893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.321</v>
+        <v>0.329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.675</v>
+        <v>0.712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.648</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354</v>
+        <v>0.315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.595</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="G4" t="n">
-        <v>0.925</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.702</v>
+        <v>0.636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.699</v>
+        <v>0.62</v>
       </c>
       <c r="D5" t="n">
-        <v>0.317</v>
+        <v>0.397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F5" t="n">
-        <v>0.433</v>
+        <v>0.474</v>
       </c>
       <c r="G5" t="n">
-        <v>0.888</v>
+        <v>0.832</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/TrainingMetrics.xlsx
+++ b/Metrics/TrainingMetrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
